--- a/dataset/sql_datasets/sport.xlsx
+++ b/dataset/sql_datasets/sport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9533FB01-98E3-4B94-8BE2-004CC10B270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34CA4DD-691C-4D61-88BC-F09B49903F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="0" windowWidth="19530" windowHeight="16905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="43">
   <si>
     <t>3x3 Basketball</t>
   </si>
@@ -66,27 +66,6 @@
     <t>Boxing</t>
   </si>
   <si>
-    <t>Canoe Slalom</t>
-  </si>
-  <si>
-    <t>Canoe Sprint</t>
-  </si>
-  <si>
-    <t>Cycling BMX Freestyle</t>
-  </si>
-  <si>
-    <t>Cycling BMX Racing</t>
-  </si>
-  <si>
-    <t>Cycling Mountain Bike</t>
-  </si>
-  <si>
-    <t>Cycling Road</t>
-  </si>
-  <si>
-    <t>Cycling Track</t>
-  </si>
-  <si>
     <t>Diving</t>
   </si>
   <si>
@@ -178,6 +157,12 @@
   </si>
   <si>
     <t>idSport</t>
+  </si>
+  <si>
+    <t>Cycling</t>
+  </si>
+  <si>
+    <t>Canoe</t>
   </si>
 </sst>
 </file>
@@ -498,7 +483,7 @@
   <dimension ref="A1:B337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,10 +494,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1272,7 +1257,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1280,7 +1265,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1288,7 +1273,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1296,7 +1281,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1304,7 +1289,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1312,7 +1297,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,7 +1305,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,7 +1313,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,7 +1321,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1344,7 +1329,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +1337,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1360,7 +1345,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1368,7 +1353,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,7 +1361,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1384,7 +1369,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1392,7 +1377,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1400,7 +1385,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1408,7 +1393,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1416,7 +1401,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1424,7 +1409,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1432,7 +1417,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,7 +1425,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,7 +1433,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1456,7 +1441,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1464,7 +1449,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1472,7 +1457,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1480,7 +1465,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1488,7 +1473,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1496,7 +1481,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,7 +1489,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1512,7 +1497,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1520,7 +1505,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1528,7 +1513,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1536,7 +1521,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1544,7 +1529,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1552,7 +1537,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1560,7 +1545,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1568,7 +1553,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1561,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,7 +1569,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,7 +1577,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,7 +1585,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1593,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,7 +1601,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1609,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1632,7 +1617,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1640,7 +1625,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1648,7 +1633,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1656,7 +1641,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1664,7 +1649,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1657,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,7 +1665,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,7 +1673,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1696,7 +1681,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1704,7 +1689,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1712,7 +1697,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1720,7 +1705,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1728,7 +1713,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1736,7 +1721,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1744,7 +1729,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1752,7 +1737,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1760,7 +1745,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1768,7 +1753,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1776,7 +1761,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1784,7 +1769,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1792,7 +1777,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1800,7 +1785,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1808,7 +1793,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1816,7 +1801,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1824,7 +1809,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1832,7 +1817,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1840,7 +1825,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1848,7 +1833,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1856,7 +1841,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1864,7 +1849,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1872,7 +1857,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1880,7 +1865,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1888,7 +1873,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1896,7 +1881,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1904,7 +1889,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1912,7 +1897,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -1920,7 +1905,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1928,7 +1913,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1936,7 +1921,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -1944,7 +1929,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1952,7 +1937,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -1960,7 +1945,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -1968,7 +1953,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1976,7 +1961,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1969,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1977,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +1985,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +1993,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2001,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2009,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2017,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2025,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2033,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2041,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2049,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2057,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2065,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2073,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2081,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2089,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2097,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2105,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2113,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2121,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2129,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2137,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2145,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2153,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2161,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2169,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2177,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2185,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2193,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2201,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2209,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2217,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2225,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2233,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2241,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2249,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2257,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2265,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2273,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2281,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2289,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2297,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2305,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2313,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2321,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2329,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2337,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2345,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2353,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2361,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2369,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2377,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2385,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2393,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2401,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2409,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2417,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2425,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2433,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2441,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2449,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2457,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2465,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2473,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2481,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2489,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2497,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2505,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2513,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2521,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2529,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2537,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2545,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2553,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2561,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2569,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2577,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2585,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2593,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2601,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2609,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2617,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2625,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2633,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2641,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2649,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2657,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2665,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2673,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2681,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2689,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2697,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2705,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2713,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2721,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2729,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2737,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2745,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2753,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -2776,7 +2761,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -2784,7 +2769,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -2792,7 +2777,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,7 +2785,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -2808,7 +2793,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -2816,7 +2801,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -2824,7 +2809,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -2832,7 +2817,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -2840,7 +2825,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2833,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -2856,7 +2841,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -2864,7 +2849,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,7 +2857,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -2880,7 +2865,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -2888,7 +2873,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +2881,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -2904,7 +2889,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -2912,7 +2897,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2905,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -2928,7 +2913,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -2936,7 +2921,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -2944,7 +2929,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -2952,7 +2937,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -2960,7 +2945,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -2968,7 +2953,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -2976,7 +2961,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,7 +2969,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2977,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,7 +2985,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,7 +2993,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -3016,7 +3001,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +3009,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3017,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,7 +3025,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,7 +3033,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -3056,7 +3041,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -3064,7 +3049,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,7 +3057,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -3080,7 +3065,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -3088,7 +3073,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -3096,7 +3081,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,7 +3089,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,7 +3097,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,7 +3105,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3113,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3121,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3129,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3137,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3145,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3153,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3161,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3169,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,7 +3177,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3200,7 +3185,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/sql_datasets/sport.xlsx
+++ b/dataset/sql_datasets/sport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34CA4DD-691C-4D61-88BC-F09B49903F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3B0B72-BBD0-4E8C-80E6-638031F11B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="41">
   <si>
     <t>3x3 Basketball</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>Wrestling</t>
-  </si>
-  <si>
-    <t>sportName</t>
-  </si>
-  <si>
-    <t>idSport</t>
   </si>
   <si>
     <t>Cycling</t>
@@ -480,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B337"/>
+  <dimension ref="A1:B336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,16 +487,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>40</v>
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -510,15 +504,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -526,7 +520,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -534,7 +528,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -542,7 +536,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -550,15 +544,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -566,7 +560,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -574,7 +568,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -582,7 +576,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -590,7 +584,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -598,7 +592,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -606,7 +600,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -614,7 +608,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -622,7 +616,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -630,7 +624,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -638,7 +632,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -646,7 +640,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -654,7 +648,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -662,15 +656,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -678,15 +672,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -694,7 +688,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -702,7 +696,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -710,7 +704,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -718,7 +712,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -726,7 +720,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -734,7 +728,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -742,7 +736,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -750,7 +744,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -758,7 +752,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -766,7 +760,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -774,7 +768,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -782,7 +776,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -790,7 +784,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -798,7 +792,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -806,7 +800,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -814,7 +808,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
@@ -822,7 +816,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -830,7 +824,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -838,7 +832,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -846,7 +840,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
@@ -854,7 +848,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
@@ -862,7 +856,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
@@ -870,7 +864,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -878,7 +872,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -886,7 +880,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
@@ -894,7 +888,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -902,7 +896,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -910,7 +904,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -918,7 +912,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
@@ -926,7 +920,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
@@ -934,7 +928,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -942,7 +936,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
@@ -950,7 +944,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
@@ -958,7 +952,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
@@ -966,7 +960,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
@@ -974,7 +968,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
@@ -982,7 +976,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
@@ -990,7 +984,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
@@ -998,7 +992,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
@@ -1006,7 +1000,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
@@ -1014,7 +1008,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
@@ -1022,7 +1016,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
@@ -1030,7 +1024,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -1038,7 +1032,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -1046,7 +1040,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
@@ -1054,7 +1048,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
@@ -1062,15 +1056,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -1078,7 +1072,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -1086,7 +1080,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -1094,7 +1088,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -1102,15 +1096,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -1118,15 +1112,15 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -1134,15 +1128,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -1150,15 +1144,15 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>9</v>
@@ -1166,7 +1160,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
@@ -1174,7 +1168,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
@@ -1182,7 +1176,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
@@ -1190,7 +1184,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
         <v>9</v>
@@ -1198,7 +1192,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
@@ -1206,7 +1200,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>9</v>
@@ -1214,7 +1208,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>9</v>
@@ -1222,7 +1216,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
         <v>9</v>
@@ -1230,7 +1224,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
         <v>9</v>
@@ -1238,7 +1232,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
         <v>9</v>
@@ -1246,319 +1240,319 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
@@ -1566,7 +1560,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -1574,7 +1568,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -1582,7 +1576,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -1590,7 +1584,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -1598,7 +1592,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
@@ -1606,7 +1600,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
@@ -1614,15 +1608,15 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -1630,7 +1624,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -1638,7 +1632,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -1646,7 +1640,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
@@ -1654,7 +1648,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
@@ -1662,15 +1656,15 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
@@ -1678,7 +1672,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" t="s">
         <v>12</v>
@@ -1686,7 +1680,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
@@ -1694,7 +1688,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
@@ -1702,7 +1696,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
@@ -1710,7 +1704,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
@@ -1718,7 +1712,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" t="s">
         <v>12</v>
@@ -1726,7 +1720,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" t="s">
         <v>12</v>
@@ -1734,7 +1728,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" t="s">
         <v>12</v>
@@ -1742,7 +1736,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
         <v>12</v>
@@ -1750,7 +1744,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" t="s">
         <v>12</v>
@@ -1758,15 +1752,15 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" t="s">
         <v>13</v>
@@ -1774,15 +1768,15 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" t="s">
         <v>14</v>
@@ -1790,15 +1784,15 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" t="s">
         <v>15</v>
@@ -1806,15 +1800,15 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
@@ -1822,15 +1816,15 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" t="s">
         <v>17</v>
@@ -1838,7 +1832,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
         <v>17</v>
@@ -1846,7 +1840,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
         <v>17</v>
@@ -1854,7 +1848,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
         <v>17</v>
@@ -1862,7 +1856,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" t="s">
         <v>17</v>
@@ -1870,7 +1864,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173" t="s">
         <v>17</v>
@@ -1878,7 +1872,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
         <v>17</v>
@@ -1886,7 +1880,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" t="s">
         <v>17</v>
@@ -1894,7 +1888,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" t="s">
         <v>17</v>
@@ -1902,7 +1896,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" t="s">
         <v>17</v>
@@ -1910,7 +1904,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" t="s">
         <v>17</v>
@@ -1918,7 +1912,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" t="s">
         <v>17</v>
@@ -1926,7 +1920,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" t="s">
         <v>17</v>
@@ -1934,7 +1928,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
         <v>17</v>
@@ -1942,15 +1936,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" t="s">
         <v>18</v>
@@ -1958,7 +1952,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" t="s">
         <v>18</v>
@@ -1966,7 +1960,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
         <v>18</v>
@@ -1974,7 +1968,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
         <v>18</v>
@@ -1982,7 +1976,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" t="s">
         <v>18</v>
@@ -1990,7 +1984,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
         <v>18</v>
@@ -1998,7 +1992,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
         <v>18</v>
@@ -2006,15 +2000,15 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" t="s">
         <v>19</v>
@@ -2022,15 +2016,15 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193" t="s">
         <v>20</v>
@@ -2038,15 +2032,15 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" t="s">
         <v>21</v>
@@ -2054,7 +2048,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" t="s">
         <v>21</v>
@@ -2062,15 +2056,15 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" t="s">
         <v>22</v>
@@ -2078,7 +2072,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
         <v>22</v>
@@ -2086,7 +2080,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
         <v>22</v>
@@ -2094,7 +2088,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
         <v>22</v>
@@ -2102,7 +2096,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202" t="s">
         <v>22</v>
@@ -2110,7 +2104,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203" t="s">
         <v>22</v>
@@ -2118,7 +2112,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
         <v>22</v>
@@ -2126,7 +2120,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
         <v>22</v>
@@ -2134,7 +2128,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
         <v>22</v>
@@ -2142,7 +2136,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
         <v>22</v>
@@ -2150,7 +2144,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208" t="s">
         <v>22</v>
@@ -2158,7 +2152,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209" t="s">
         <v>22</v>
@@ -2166,7 +2160,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
         <v>22</v>
@@ -2174,15 +2168,15 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212" t="s">
         <v>23</v>
@@ -2190,15 +2184,15 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
         <v>24</v>
@@ -2206,7 +2200,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
         <v>24</v>
@@ -2214,7 +2208,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s">
         <v>24</v>
@@ -2222,7 +2216,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217" t="s">
         <v>24</v>
@@ -2230,7 +2224,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218" t="s">
         <v>24</v>
@@ -2238,7 +2232,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219" t="s">
         <v>24</v>
@@ -2246,7 +2240,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220" t="s">
         <v>24</v>
@@ -2254,7 +2248,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221" t="s">
         <v>24</v>
@@ -2262,7 +2256,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s">
         <v>24</v>
@@ -2270,15 +2264,15 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224" t="s">
         <v>25</v>
@@ -2286,7 +2280,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225" t="s">
         <v>25</v>
@@ -2294,7 +2288,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226" t="s">
         <v>25</v>
@@ -2302,7 +2296,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
         <v>25</v>
@@ -2310,7 +2304,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228" t="s">
         <v>25</v>
@@ -2318,7 +2312,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229" t="s">
         <v>25</v>
@@ -2326,7 +2320,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230" t="s">
         <v>25</v>
@@ -2334,7 +2328,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231" t="s">
         <v>25</v>
@@ -2342,7 +2336,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232" t="s">
         <v>25</v>
@@ -2350,7 +2344,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233" t="s">
         <v>25</v>
@@ -2358,7 +2352,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234" t="s">
         <v>25</v>
@@ -2366,7 +2360,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
         <v>25</v>
@@ -2374,7 +2368,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236" t="s">
         <v>25</v>
@@ -2382,7 +2376,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
         <v>25</v>
@@ -2390,15 +2384,15 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239" t="s">
         <v>26</v>
@@ -2406,7 +2400,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240" t="s">
         <v>26</v>
@@ -2414,7 +2408,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241" t="s">
         <v>26</v>
@@ -2422,15 +2416,15 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243" t="s">
         <v>27</v>
@@ -2438,23 +2432,23 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B246" t="s">
         <v>29</v>
@@ -2462,7 +2456,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B247" t="s">
         <v>29</v>
@@ -2470,7 +2464,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B248" t="s">
         <v>29</v>
@@ -2478,7 +2472,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B249" t="s">
         <v>29</v>
@@ -2486,7 +2480,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B250" t="s">
         <v>29</v>
@@ -2494,7 +2488,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B251" t="s">
         <v>29</v>
@@ -2502,7 +2496,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B252" t="s">
         <v>29</v>
@@ -2510,7 +2504,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B253" t="s">
         <v>29</v>
@@ -2518,7 +2512,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B254" t="s">
         <v>29</v>
@@ -2526,7 +2520,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B255" t="s">
         <v>29</v>
@@ -2534,7 +2528,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B256" t="s">
         <v>29</v>
@@ -2542,7 +2536,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B257" t="s">
         <v>29</v>
@@ -2550,7 +2544,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B258" t="s">
         <v>29</v>
@@ -2558,7 +2552,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B259" t="s">
         <v>29</v>
@@ -2566,7 +2560,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B260" t="s">
         <v>29</v>
@@ -2574,7 +2568,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B261" t="s">
         <v>29</v>
@@ -2582,7 +2576,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B262" t="s">
         <v>29</v>
@@ -2590,7 +2584,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B263" t="s">
         <v>29</v>
@@ -2598,7 +2592,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B264" t="s">
         <v>29</v>
@@ -2606,7 +2600,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B265" t="s">
         <v>29</v>
@@ -2614,7 +2608,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B266" t="s">
         <v>29</v>
@@ -2622,7 +2616,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B267" t="s">
         <v>29</v>
@@ -2630,7 +2624,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B268" t="s">
         <v>29</v>
@@ -2638,7 +2632,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B269" t="s">
         <v>29</v>
@@ -2646,7 +2640,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B270" t="s">
         <v>29</v>
@@ -2654,7 +2648,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B271" t="s">
         <v>29</v>
@@ -2662,7 +2656,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B272" t="s">
         <v>29</v>
@@ -2670,7 +2664,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B273" t="s">
         <v>29</v>
@@ -2678,7 +2672,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B274" t="s">
         <v>29</v>
@@ -2686,7 +2680,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B275" t="s">
         <v>29</v>
@@ -2694,7 +2688,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B276" t="s">
         <v>29</v>
@@ -2702,7 +2696,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B277" t="s">
         <v>29</v>
@@ -2710,7 +2704,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B278" t="s">
         <v>29</v>
@@ -2718,15 +2712,15 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B280" t="s">
         <v>30</v>
@@ -2734,7 +2728,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B281" t="s">
         <v>30</v>
@@ -2742,7 +2736,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B282" t="s">
         <v>30</v>
@@ -2750,7 +2744,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B283" t="s">
         <v>30</v>
@@ -2758,15 +2752,15 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B285" t="s">
         <v>31</v>
@@ -2774,7 +2768,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B286" t="s">
         <v>31</v>
@@ -2782,7 +2776,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B287" t="s">
         <v>31</v>
@@ -2790,7 +2784,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B288" t="s">
         <v>31</v>
@@ -2798,7 +2792,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B289" t="s">
         <v>31</v>
@@ -2806,7 +2800,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B290" t="s">
         <v>31</v>
@@ -2814,7 +2808,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B291" t="s">
         <v>31</v>
@@ -2822,15 +2816,15 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B293" t="s">
         <v>32</v>
@@ -2838,7 +2832,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B294" t="s">
         <v>32</v>
@@ -2846,7 +2840,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B295" t="s">
         <v>32</v>
@@ -2854,7 +2848,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B296" t="s">
         <v>32</v>
@@ -2862,15 +2856,15 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B298" t="s">
         <v>33</v>
@@ -2878,15 +2872,15 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B300" t="s">
         <v>34</v>
@@ -2894,7 +2888,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B301" t="s">
         <v>34</v>
@@ -2902,15 +2896,15 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B303" t="s">
         <v>35</v>
@@ -2918,15 +2912,15 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B305" t="s">
         <v>36</v>
@@ -2934,15 +2928,15 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B307" t="s">
         <v>37</v>
@@ -2950,7 +2944,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B308" t="s">
         <v>37</v>
@@ -2958,7 +2952,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B309" t="s">
         <v>37</v>
@@ -2966,7 +2960,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B310" t="s">
         <v>37</v>
@@ -2974,7 +2968,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B311" t="s">
         <v>37</v>
@@ -2982,7 +2976,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B312" t="s">
         <v>37</v>
@@ -2990,7 +2984,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B313" t="s">
         <v>37</v>
@@ -2998,7 +2992,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B314" t="s">
         <v>37</v>
@@ -3006,7 +3000,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B315" t="s">
         <v>37</v>
@@ -3014,7 +3008,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B316" t="s">
         <v>37</v>
@@ -3022,7 +3016,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B317" t="s">
         <v>37</v>
@@ -3030,7 +3024,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B318" t="s">
         <v>37</v>
@@ -3038,15 +3032,15 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B320" t="s">
         <v>38</v>
@@ -3054,7 +3048,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B321" t="s">
         <v>38</v>
@@ -3062,7 +3056,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B322" t="s">
         <v>38</v>
@@ -3070,7 +3064,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B323" t="s">
         <v>38</v>
@@ -3078,7 +3072,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B324" t="s">
         <v>38</v>
@@ -3086,7 +3080,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B325" t="s">
         <v>38</v>
@@ -3094,7 +3088,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B326" t="s">
         <v>38</v>
@@ -3102,7 +3096,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B327" t="s">
         <v>38</v>
@@ -3110,7 +3104,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B328" t="s">
         <v>38</v>
@@ -3118,7 +3112,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B329" t="s">
         <v>38</v>
@@ -3126,7 +3120,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B330" t="s">
         <v>38</v>
@@ -3134,7 +3128,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B331" t="s">
         <v>38</v>
@@ -3142,7 +3136,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B332" t="s">
         <v>38</v>
@@ -3150,7 +3144,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B333" t="s">
         <v>38</v>
@@ -3158,7 +3152,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B334" t="s">
         <v>38</v>
@@ -3166,7 +3160,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B335" t="s">
         <v>38</v>
@@ -3174,23 +3168,15 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B336" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>336</v>
-      </c>
-      <c r="B337" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B337">
-    <sortCondition ref="A2:A337"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B336">
+    <sortCondition ref="A1:A336"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/sql_datasets/sport.xlsx
+++ b/dataset/sql_datasets/sport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3B0B72-BBD0-4E8C-80E6-638031F11B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FE97F6-CE96-42C0-A9F9-1C7F84BB25F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="41">
   <si>
     <t>3x3 Basketball</t>
   </si>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B336"/>
+  <dimension ref="A1:B335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:XFD196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,15 +2048,15 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B197" t="s">
         <v>22</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B198" t="s">
         <v>22</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B199" t="s">
         <v>22</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B200" t="s">
         <v>22</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B201" t="s">
         <v>22</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B202" t="s">
         <v>22</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B203" t="s">
         <v>22</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B204" t="s">
         <v>22</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B205" t="s">
         <v>22</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B206" t="s">
         <v>22</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B207" t="s">
         <v>22</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B208" t="s">
         <v>22</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B209" t="s">
         <v>22</v>
@@ -2160,15 +2160,15 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B211" t="s">
         <v>23</v>
@@ -2176,15 +2176,15 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B213" t="s">
         <v>24</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B214" t="s">
         <v>24</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B215" t="s">
         <v>24</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B216" t="s">
         <v>24</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B217" t="s">
         <v>24</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B218" t="s">
         <v>24</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B219" t="s">
         <v>24</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B220" t="s">
         <v>24</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B221" t="s">
         <v>24</v>
@@ -2256,15 +2256,15 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B223" t="s">
         <v>25</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B224" t="s">
         <v>25</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B225" t="s">
         <v>25</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B226" t="s">
         <v>25</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B227" t="s">
         <v>25</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B228" t="s">
         <v>25</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B229" t="s">
         <v>25</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B230" t="s">
         <v>25</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B231" t="s">
         <v>25</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B232" t="s">
         <v>25</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B233" t="s">
         <v>25</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B234" t="s">
         <v>25</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B235" t="s">
         <v>25</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B236" t="s">
         <v>25</v>
@@ -2376,15 +2376,15 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B238" t="s">
         <v>26</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B239" t="s">
         <v>26</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B240" t="s">
         <v>26</v>
@@ -2408,15 +2408,15 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B242" t="s">
         <v>27</v>
@@ -2424,23 +2424,23 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B245" t="s">
         <v>29</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B246" t="s">
         <v>29</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B247" t="s">
         <v>29</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B248" t="s">
         <v>29</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B249" t="s">
         <v>29</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B250" t="s">
         <v>29</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B251" t="s">
         <v>29</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B252" t="s">
         <v>29</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B253" t="s">
         <v>29</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B254" t="s">
         <v>29</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B255" t="s">
         <v>29</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B256" t="s">
         <v>29</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B257" t="s">
         <v>29</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B258" t="s">
         <v>29</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B259" t="s">
         <v>29</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B260" t="s">
         <v>29</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B261" t="s">
         <v>29</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B262" t="s">
         <v>29</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B263" t="s">
         <v>29</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B264" t="s">
         <v>29</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B265" t="s">
         <v>29</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B266" t="s">
         <v>29</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B267" t="s">
         <v>29</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B268" t="s">
         <v>29</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B269" t="s">
         <v>29</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B270" t="s">
         <v>29</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B271" t="s">
         <v>29</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B272" t="s">
         <v>29</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B273" t="s">
         <v>29</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B274" t="s">
         <v>29</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B275" t="s">
         <v>29</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B276" t="s">
         <v>29</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B277" t="s">
         <v>29</v>
@@ -2704,15 +2704,15 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B278" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B279" t="s">
         <v>30</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B280" t="s">
         <v>30</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B281" t="s">
         <v>30</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B282" t="s">
         <v>30</v>
@@ -2744,15 +2744,15 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B283" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B284" t="s">
         <v>31</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B285" t="s">
         <v>31</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B286" t="s">
         <v>31</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B287" t="s">
         <v>31</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B288" t="s">
         <v>31</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B289" t="s">
         <v>31</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B290" t="s">
         <v>31</v>
@@ -2808,15 +2808,15 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B291" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B292" t="s">
         <v>32</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B293" t="s">
         <v>32</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B294" t="s">
         <v>32</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B295" t="s">
         <v>32</v>
@@ -2848,15 +2848,15 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B296" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B297" t="s">
         <v>33</v>
@@ -2864,15 +2864,15 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B298" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B299" t="s">
         <v>34</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B300" t="s">
         <v>34</v>
@@ -2888,15 +2888,15 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B301" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B302" t="s">
         <v>35</v>
@@ -2904,15 +2904,15 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B303" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B304" t="s">
         <v>36</v>
@@ -2920,15 +2920,15 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B305" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B306" t="s">
         <v>37</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B307" t="s">
         <v>37</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B308" t="s">
         <v>37</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B309" t="s">
         <v>37</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B310" t="s">
         <v>37</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B311" t="s">
         <v>37</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B312" t="s">
         <v>37</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B313" t="s">
         <v>37</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B314" t="s">
         <v>37</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B315" t="s">
         <v>37</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B316" t="s">
         <v>37</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B317" t="s">
         <v>37</v>
@@ -3024,15 +3024,15 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B318" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B319" t="s">
         <v>38</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B320" t="s">
         <v>38</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B321" t="s">
         <v>38</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B322" t="s">
         <v>38</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B323" t="s">
         <v>38</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B324" t="s">
         <v>38</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B325" t="s">
         <v>38</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B326" t="s">
         <v>38</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B327" t="s">
         <v>38</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B328" t="s">
         <v>38</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B329" t="s">
         <v>38</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B330" t="s">
         <v>38</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B331" t="s">
         <v>38</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B332" t="s">
         <v>38</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B333" t="s">
         <v>38</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B334" t="s">
         <v>38</v>
@@ -3160,23 +3160,15 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B335" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336">
-        <v>336</v>
-      </c>
-      <c r="B336" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B336">
-    <sortCondition ref="A1:A336"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B335">
+    <sortCondition ref="A1:A335"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
